--- a/Template_PRF.xlsx
+++ b/Template_PRF.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\GARRY\Desktop\NEW BOND AUTOMATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E7D47-4365-486C-8F1F-212F52F602CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRF" sheetId="1" r:id="rId1"/>
@@ -19,27 +18,29 @@
     <sheet name="INDBK" sheetId="4" r:id="rId4"/>
     <sheet name="OR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+  <si>
+    <t>G(13)-1687732</t>
+  </si>
+  <si>
+    <t>bicol peryodiko</t>
+  </si>
+  <si>
+    <t>CAVINITAN, VIRAC, CATANDUANES</t>
+  </si>
+  <si>
+    <t>LGU-BARAS, CATANDUANES</t>
+  </si>
   <si>
     <t>WHEREAS THE ABOVE-NAMED PRINCIPAL WAS AWARDED AND GUARANTEES THE FAITHFUL PERFORMANCE FOR THE PROJECT:</t>
+  </si>
+  <si>
+    <t>PUBLICATION OF ORDINANCES</t>
   </si>
   <si>
     <t>The Performance security shall remain valid until issuance by the procuring entity the final certificate of acceptance.</t>
@@ -57,16 +58,22 @@
     <t>PROVIDED HOWEVER, that the maximum limit of the surety hereunder shall in no case exceed the sum of PESOS:</t>
   </si>
   <si>
-    <t>CONTRACT</t>
+    <t>ONE HUNDRED FORTY NINE THOUSAND FOUR HUNDRED TEN  PESOS ONLY</t>
   </si>
   <si>
-    <t>APRIL5, 2023</t>
+    <t>(Php149,410.00; Philippine Currencies)</t>
+  </si>
+  <si>
+    <t>CONTRACT</t>
   </si>
   <si>
     <t>VIRAC, CATANDUANES</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+    <t/>
+  </si>
+  <si>
+    <t>MR. FERDINAND M. BRIZO</t>
   </si>
   <si>
     <t>GEMMA T. SARMIENTO</t>
@@ -78,124 +85,79 @@
     <t>Makati City</t>
   </si>
   <si>
-    <t>ANGELA M. RAMIREZ</t>
-  </si>
-  <si>
     <t>Legazpi City</t>
   </si>
   <si>
-    <t>ANGELA M. RAMIREZ -MANAGER</t>
+    <t>*January 11, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ONE HUNDRED FORTY NINE THOUSAND</t>
+  </si>
+  <si>
+    <t>FOUR HUNDRED TEN  PESOS ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONE THOUSAND TWO HUNDRED FORTY SIX  </t>
+  </si>
+  <si>
+    <t>AND 30/100 ONLY</t>
   </si>
   <si>
     <t>ONE (1) YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>FOUR  PESOS AND 14/100 ONLY</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>BICOL PERYODIKO</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t xml:space="preserve">    CAVINITAN, VIRAC, CATANDUANES</t>
   </si>
   <si>
-    <t xml:space="preserve">                     ANGELA M. RAMIREZ</t>
+    <t xml:space="preserve">          ONE HUNDRED FORTY NINE THOUSAND FOUR HUNDRED TEN  PESOS ONLY       149,410.00</t>
   </si>
   <si>
-    <t>January 4, 2023</t>
+    <t>JULY 29, 2026</t>
   </si>
   <si>
-    <t>*January 11, 2023</t>
+    <t>JULY 29, 2025</t>
   </si>
   <si>
-    <t>BOND NUMBER</t>
+    <t xml:space="preserve">                             STEPHANIE M. RAMIREZ</t>
   </si>
   <si>
-    <t>CONTRACTOR</t>
+    <t xml:space="preserve"> STEPHANIE M. RAMIREZ</t>
   </si>
   <si>
-    <t>CONTRACTOR ADDRESS</t>
+    <t xml:space="preserve"> STEPHANIE M. RAMIREZ - BRANCH MANAGER</t>
   </si>
   <si>
-    <t>AGENCY</t>
+    <t xml:space="preserve">JULY 29, 2025 </t>
   </si>
   <si>
-    <t>AMOUNT 1ST</t>
+    <t xml:space="preserve">ONE HUNDRED FORTY NINE THOUSAND </t>
   </si>
   <si>
-    <t>AMOUJNT</t>
+    <t xml:space="preserve">                 JULY 29, 2025 </t>
   </si>
   <si>
-    <t>CONTRACT NAME</t>
+    <t>JULY 29, 2025  - JULY 29, 2026</t>
   </si>
   <si>
-    <t>AMOUNT IN WORDS</t>
+    <t>TWO THOUSAND THREE  HUNDRED FIFTY</t>
   </si>
   <si>
-    <t>AMOUNT 2ND</t>
+    <t>January 9, 2025</t>
   </si>
   <si>
-    <t>AMOUNT IN DECIMAL</t>
-  </si>
-  <si>
-    <t>DATE, 2024</t>
-  </si>
-  <si>
-    <t>DATE, 2023</t>
-  </si>
-  <si>
-    <t>PROPRIETOR</t>
-  </si>
-  <si>
-    <t>PROP-ADDRESS</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>CONTRATOR</t>
-  </si>
-  <si>
-    <t>AMOUNT IN WORDS 1ST</t>
-  </si>
-  <si>
-    <t>AMOUNT IN WORDS 2ND</t>
-  </si>
-  <si>
-    <t>RATING IN WORDS</t>
-  </si>
-  <si>
-    <t>FRACTION</t>
-  </si>
-  <si>
-    <t>RATING</t>
-  </si>
-  <si>
-    <t>PROP</t>
-  </si>
-  <si>
-    <t>PROP ADD</t>
-  </si>
-  <si>
-    <t>PAYMENT IN WORDS 1</t>
-  </si>
-  <si>
-    <t>PAYMENT IN WORD 2</t>
-  </si>
-  <si>
-    <t>BOND NO</t>
-  </si>
-  <si>
-    <t>DATE, 2023 - DATE, 2024</t>
+    <t>Cavinitan , Virac, Catanduanes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -311,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -329,6 +283,13 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -377,27 +338,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,48 +375,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -785,19 +750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64:K64"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -810,7 +775,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -823,7 +788,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -836,7 +801,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -849,7 +814,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -862,7 +827,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -875,7 +840,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -888,7 +853,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -901,7 +866,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -911,12 +876,12 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -929,7 +894,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -942,7 +907,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -955,7 +920,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -968,7 +933,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -981,22 +946,22 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="21" t="s">
-        <v>26</v>
+      <c r="D16" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1009,7 +974,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1022,7 +987,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1035,7 +1000,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1048,37 +1013,32 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1091,7 +1051,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1104,7 +1064,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1117,7 +1077,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1130,7 +1090,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1143,7 +1103,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1156,65 +1116,65 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -1227,14 +1187,14 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1242,7 +1202,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1255,7 +1215,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1268,7 +1228,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1281,7 +1241,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1294,7 +1254,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1307,7 +1267,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1320,7 +1280,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1333,7 +1293,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1346,11 +1306,11 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1361,7 +1321,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1374,7 +1334,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1387,7 +1347,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1400,7 +1360,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1413,7 +1373,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1424,11 +1384,11 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1441,16 +1401,16 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -1458,7 +1418,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1471,7 +1431,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1484,7 +1444,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1497,7 +1457,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1510,7 +1470,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1523,7 +1483,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1536,7 +1496,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1549,24 +1509,24 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="B64" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="31"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1579,7 +1539,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1592,7 +1552,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1605,7 +1565,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1618,11 +1578,11 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
-      <c r="C69" s="21" t="s">
-        <v>10</v>
+      <c r="C69" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -1633,7 +1593,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1646,7 +1606,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1659,7 +1619,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1672,7 +1632,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1685,16 +1645,14 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H64:K64"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B64:E64"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="H64:J64"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -1702,29 +1660,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1737,7 +1695,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1747,12 +1705,12 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1765,10 +1723,10 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1780,7 +1738,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1793,7 +1751,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1801,14 +1759,14 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1821,7 +1779,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1834,7 +1792,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1847,64 +1805,1614 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="42">
-        <v>136568</v>
-      </c>
-      <c r="F11" s="43"/>
+      <c r="E11" s="47">
+        <v>140835</v>
+      </c>
+      <c r="F11" s="48"/>
       <c r="G11" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="J11" s="24"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="39">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="E13" s="44">
+        <v>1993932</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="50">
+        <v>149410</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="44">
         <v>11070531</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="32" t="s">
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A44:E44"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="55">
+        <v>149410</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="55">
+        <v>1246.3008</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+    </row>
+    <row r="33" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+    </row>
+    <row r="34" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="20"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1913,11 +3421,13 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1930,7 +3440,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1943,7 +3453,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1956,7 +3466,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1969,7 +3479,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1982,7 +3492,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1995,7 +3505,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2008,7 +3518,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2021,12 +3531,10 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2036,10 +3544,12 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2049,20 +3559,22 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2075,23 +3587,29 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2101,7 +3619,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2114,7 +3632,7 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2127,7 +3645,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2140,7 +3658,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2153,7 +3671,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2166,7 +3684,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2179,7 +3697,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2192,11 +3710,9 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2207,7 +3723,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2220,13 +3736,11 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2235,7 +3749,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2248,7 +3762,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2261,7 +3775,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2274,7 +3788,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2287,9 +3801,11 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -2300,38 +3816,35 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="14"/>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2344,7 +3857,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2357,7 +3870,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2370,1486 +3883,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="39">
-        <v>11070531</v>
-      </c>
-      <c r="K55" s="39"/>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="G17:K17"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3862,7 +3896,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3875,7 +3909,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3888,24 +3922,20 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3918,20 +3948,24 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3944,7 +3978,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3957,7 +3991,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3970,7 +4004,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3983,24 +4017,50 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -4008,24 +4068,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="8" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="22" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4033,11 +4093,11 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="20"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4045,11 +4105,11 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4057,11 +4117,11 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4069,13 +4129,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
+    <row r="5" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4083,23 +4143,23 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4108,268 +4168,268 @@
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>46</v>
+    <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="27">
+      <c r="E13" s="36">
         <f>E30</f>
-        <v>4709.8875400000006</v>
+        <v>2354.1370975999998</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="43"/>
+      <c r="B15" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="E17" s="26">
-        <v>3295.82</v>
+      <c r="E17" s="28">
+        <v>1246.3008</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36">
         <f>12.5%*E17</f>
-        <v>411.97750000000002</v>
+        <v>155.7876</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27">
+        <v>15</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="36">
         <f>0.2%*E17</f>
-        <v>6.5916400000000008</v>
+        <v>2.4926016</v>
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="18"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="26">
-        <v>600</v>
+      <c r="D23" s="37"/>
+      <c r="E23" s="28">
+        <v>800</v>
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="D24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27">
+      <c r="D25" s="37"/>
+      <c r="E25" s="36">
         <f>12%*E17</f>
-        <v>395.4984</v>
+        <v>149.556096</v>
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="36"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27">
+      <c r="D27" s="37"/>
+      <c r="E27" s="36">
         <f>SUM(E17:E25)</f>
-        <v>4709.8875400000006</v>
+        <v>2354.1370975999998</v>
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="29">
+      <c r="B28" s="38">
         <f>E17</f>
-        <v>3295.82</v>
+        <v>1246.3008</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="33">
+      <c r="D30" s="39"/>
+      <c r="E30" s="40">
         <f>E27</f>
-        <v>4709.8875400000006</v>
+        <v>2354.1370975999998</v>
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="35"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="28" t="str">
+      <c r="B32" s="37" t="str">
         <f>D24</f>
-        <v xml:space="preserve">  </v>
+        <v/>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -4377,9 +4437,9 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="26">
+      <c r="B33" s="29">
         <f>D30</f>
         <v>0</v>
       </c>
@@ -4389,19 +4449,19 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4409,14 +4469,14 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4427,10 +4487,10 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4441,33 +4501,33 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4477,7 +4537,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4491,8 +4551,8 @@
   <mergeCells count="4">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Template_PRF.xlsx
+++ b/Template_PRF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\GARRY\Desktop\NEW BOND AUTOMATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\Python\excelProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575BDFC-18BF-47BA-84CD-64A286B9299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRF" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,25 @@
     <sheet name="INDBK" sheetId="4" r:id="rId4"/>
     <sheet name="OR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>G(13)-1687732</t>
   </si>
@@ -112,12 +126,6 @@
     <t>BICOL PERYODIKO</t>
   </si>
   <si>
-    <t xml:space="preserve">    CAVINITAN, VIRAC, CATANDUANES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ONE HUNDRED FORTY NINE THOUSAND FOUR HUNDRED TEN  PESOS ONLY       149,410.00</t>
-  </si>
-  <si>
     <t>JULY 29, 2026</t>
   </si>
   <si>
@@ -152,12 +160,27 @@
   </si>
   <si>
     <t>Cavinitan , Virac, Catanduanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOND NO. </t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>PROP ADDRESS</t>
+  </si>
+  <si>
+    <t>AGENCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOUNT IN WORDS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -316,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -341,7 +364,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,10 +375,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -395,17 +413,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,16 +767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D45:D46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,10 +893,10 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42"/>
+      <c r="J10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -950,14 +967,14 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="26" t="s">
-        <v>29</v>
+      <c r="D16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -1017,19 +1034,14 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="H21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
@@ -1310,7 +1322,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1410,7 +1422,7 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -1511,20 +1523,19 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="B64" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="31"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
@@ -1581,7 +1592,7 @@
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="10"/>
@@ -1660,27 +1671,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:K14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -1705,10 +1716,10 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -1759,7 +1770,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1810,59 +1821,59 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <v>140835</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="J11" s="23"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="E13" s="44">
+      <c r="E13" s="39">
         <v>1993932</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="23"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1979,7 +1990,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2178,7 +2189,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2254,31 +2265,31 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="50">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="45">
         <v>149410</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="42"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -2331,11 +2342,11 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
+      <c r="H49" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,14 +2410,14 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2415,13 +2426,13 @@
       <c r="G55" s="11"/>
       <c r="H55" s="19"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="44">
+      <c r="J55" s="39">
         <v>11070531</v>
       </c>
-      <c r="K55" s="42"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2436,7 +2447,7 @@
       <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2444,26 +2455,26 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="42"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="24"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2476,7 +2487,7 @@
       <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2489,7 +2500,7 @@
       <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2502,7 +2513,7 @@
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2515,108 +2526,108 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
@@ -2653,8 +2664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
@@ -2662,7 +2673,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2672,12 +2683,12 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2690,7 +2701,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2703,7 +2714,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2716,7 +2727,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2729,7 +2740,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2742,7 +2753,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2755,7 +2766,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2768,7 +2779,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2781,7 +2792,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2794,7 +2805,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2807,7 +2818,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2820,7 +2831,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2833,7 +2844,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2845,11 +2856,8 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2861,11 +2869,8 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2877,69 +2882,57 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="55">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="47">
         <v>149410</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2951,11 +2944,8 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2967,11 +2957,8 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2983,11 +2970,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2999,29 +2983,23 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
         <v>25</v>
@@ -3029,19 +3007,16 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="55">
+      <c r="F25" s="47">
         <v>1246.3008</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="4"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3055,11 +3030,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3071,11 +3043,8 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3087,11 +3056,8 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3103,11 +3069,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3119,11 +3082,8 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3135,57 +3095,28 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-    </row>
-    <row r="34" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3234,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3492,7 +3423,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -3562,14 +3493,14 @@
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -3762,7 +3693,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3838,7 +3769,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -4068,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4077,12 +4008,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="22" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4093,7 +4024,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="24"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
@@ -4105,7 +4036,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="24"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
@@ -4117,7 +4048,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="24"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
@@ -4129,13 +4060,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>38</v>
+    <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4143,23 +4074,23 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4168,111 +4099,111 @@
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="28"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="36">
+      <c r="E13" s="31">
         <f>E30</f>
         <v>2354.1370975999998</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>1246.3008</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -4280,14 +4211,14 @@
       <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36">
+      <c r="D18" s="32"/>
+      <c r="E18" s="31">
         <f>12.5%*E17</f>
         <v>155.7876</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -4297,7 +4228,7 @@
       <c r="E19" s="10"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
@@ -4307,7 +4238,7 @@
       <c r="E20" s="10"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -4317,117 +4248,117 @@
       <c r="E21" s="10"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="36">
+      <c r="D22" s="32"/>
+      <c r="E22" s="31">
         <f>0.2%*E17</f>
         <v>2.4926016</v>
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="18"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="28">
+      <c r="D23" s="32"/>
+      <c r="E23" s="27">
         <v>800</v>
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="32" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="10"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36">
+      <c r="D25" s="32"/>
+      <c r="E25" s="31">
         <f>12%*E17</f>
         <v>149.556096</v>
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36">
+      <c r="D27" s="32"/>
+      <c r="E27" s="31">
         <f>SUM(E17:E25)</f>
         <v>2354.1370975999998</v>
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="38">
+      <c r="B28" s="33">
         <f>E17</f>
         <v>1246.3008</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="10"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="38"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40">
+      <c r="D30" s="34"/>
+      <c r="E30" s="35">
         <f>E27</f>
         <v>2354.1370975999998</v>
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="37"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="37" t="str">
+      <c r="B32" s="32" t="str">
         <f>D24</f>
         <v/>
       </c>
@@ -4437,9 +4368,9 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>D30</f>
         <v>0</v>
       </c>
@@ -4451,13 +4382,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
@@ -4469,7 +4400,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
@@ -4502,29 +4433,29 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">

--- a/Template_PRF.xlsx
+++ b/Template_PRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\Python\excelProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575BDFC-18BF-47BA-84CD-64A286B9299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33B467-52ED-470B-B19E-B654C3F55969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRF" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>G(13)-1687732</t>
   </si>
@@ -54,9 +54,6 @@
     <t>WHEREAS THE ABOVE-NAMED PRINCIPAL WAS AWARDED AND GUARANTEES THE FAITHFUL PERFORMANCE FOR THE PROJECT:</t>
   </si>
   <si>
-    <t>PUBLICATION OF ORDINANCES</t>
-  </si>
-  <si>
     <t>The Performance security shall remain valid until issuance by the procuring entity the final certificate of acceptance.</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>PROVIDED HOWEVER, that the maximum limit of the surety hereunder shall in no case exceed the sum of PESOS:</t>
   </si>
   <si>
-    <t>ONE HUNDRED FORTY NINE THOUSAND FOUR HUNDRED TEN  PESOS ONLY</t>
-  </si>
-  <si>
-    <t>(Php149,410.00; Philippine Currencies)</t>
-  </si>
-  <si>
     <t>CONTRACT</t>
   </si>
   <si>
@@ -102,12 +93,6 @@
     <t>Legazpi City</t>
   </si>
   <si>
-    <t>*January 11, 2023</t>
-  </si>
-  <si>
-    <t>ONE HUNDRED FORTY NINE THOUSAND</t>
-  </si>
-  <si>
     <t>FOUR HUNDRED TEN  PESOS ONLY</t>
   </si>
   <si>
@@ -126,21 +111,9 @@
     <t>BICOL PERYODIKO</t>
   </si>
   <si>
-    <t>JULY 29, 2026</t>
-  </si>
-  <si>
     <t>JULY 29, 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">                             STEPHANIE M. RAMIREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STEPHANIE M. RAMIREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STEPHANIE M. RAMIREZ - BRANCH MANAGER</t>
-  </si>
-  <si>
     <t xml:space="preserve">JULY 29, 2025 </t>
   </si>
   <si>
@@ -156,12 +129,6 @@
     <t>TWO THOUSAND THREE  HUNDRED FIFTY</t>
   </si>
   <si>
-    <t>January 9, 2025</t>
-  </si>
-  <si>
-    <t>Cavinitan , Virac, Catanduanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOND NO. </t>
   </si>
   <si>
@@ -175,6 +142,63 @@
   </si>
   <si>
     <t xml:space="preserve">AMOUNT IN WORDS </t>
+  </si>
+  <si>
+    <t>CONTRACT NAME</t>
+  </si>
+  <si>
+    <t>AMOUNT IN WORDS</t>
+  </si>
+  <si>
+    <t>(PhpCOVERAGE; Philippine Currencies)</t>
+  </si>
+  <si>
+    <t>DATE, YEAR + 1</t>
+  </si>
+  <si>
+    <t>DATE, YEAR</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>PROPRIETOR</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>BOND NO.</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>CTC DATE</t>
+  </si>
+  <si>
+    <t>CTC MANAGER DATE</t>
+  </si>
+  <si>
+    <t>CTC MANAGER</t>
+  </si>
+  <si>
+    <t>DATE, 2025</t>
+  </si>
+  <si>
+    <t>MANAGER - BRANCH MANAGER</t>
+  </si>
+  <si>
+    <t>AMOUNT IN WORDS 1</t>
+  </si>
+  <si>
+    <t>AMOUNT IN WORDS 2</t>
+  </si>
+  <si>
+    <t>COVERAGE</t>
+  </si>
+  <si>
+    <t>PROP ADD</t>
   </si>
 </sst>
 </file>
@@ -390,9 +414,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +448,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +918,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K10" s="37"/>
     </row>
@@ -968,13 +992,13 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="36" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -1035,19 +1059,21 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="H21" s="25" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1163,7 @@
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,43 +1173,43 @@
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,7 +1232,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1322,7 +1348,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1396,7 +1422,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K54" s="10"/>
     </row>
@@ -1418,11 +1444,11 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -1523,16 +1549,16 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="36" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
@@ -1593,7 +1619,7 @@
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -1674,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1743,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="36" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K3" s="37"/>
     </row>
@@ -1737,7 +1763,7 @@
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1770,7 +1796,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1821,16 +1847,16 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="42">
-        <v>140835</v>
-      </c>
-      <c r="F11" s="43"/>
+      <c r="E11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="42"/>
       <c r="G11" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="14"/>
@@ -1849,31 +1875,34 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="E13" s="39">
-        <v>1993932</v>
-      </c>
-      <c r="F13" s="39"/>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>32</v>
+      <c r="B14" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1882,9 +1911,6 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1990,7 +2016,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2160,7 +2186,7 @@
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2189,7 +2215,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2265,15 +2291,15 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>22</v>
+      <c r="A44" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
-      <c r="F44" s="45">
-        <v>149410</v>
+      <c r="F44" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -2281,14 +2307,14 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>23</v>
+      <c r="A45" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="44"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="37"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2342,11 +2368,11 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="H49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2410,7 +2436,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -2426,8 +2452,8 @@
       <c r="G55" s="11"/>
       <c r="H55" s="19"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="39">
-        <v>11070531</v>
+      <c r="J55" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="K55" s="37"/>
     </row>
@@ -2440,7 +2466,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="15" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="19"/>
@@ -2460,8 +2486,8 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
-      <c r="B58" s="40" t="s">
-        <v>15</v>
+      <c r="B58" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="11"/>
@@ -2885,15 +2911,15 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="49" t="s">
-        <v>28</v>
+      <c r="B17" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="46" t="s">
-        <v>35</v>
+      <c r="G17" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -2902,13 +2928,13 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="48" t="s">
-        <v>23</v>
+      <c r="B18" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="47">
+      <c r="F18" s="46">
         <v>149410</v>
       </c>
       <c r="G18" s="37"/>
@@ -2919,7 +2945,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="37"/>
@@ -2991,8 +3017,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="46" t="s">
-        <v>24</v>
+      <c r="G24" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -3002,12 +3028,12 @@
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="47">
+      <c r="F25" s="46">
         <v>1246.3008</v>
       </c>
       <c r="G25" s="37"/>
@@ -3024,7 +3050,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3098,7 +3124,7 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3379,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -3479,7 +3505,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -3500,7 +3526,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -3522,7 +3548,7 @@
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3735,7 +3761,7 @@
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -3769,7 +3795,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -3882,7 +3908,7 @@
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -4066,7 +4092,7 @@
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4079,11 +4105,11 @@
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
@@ -4100,16 +4126,16 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
@@ -4143,7 +4169,7 @@
     </row>
     <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="30"/>
@@ -4154,7 +4180,7 @@
     <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
@@ -4167,8 +4193,8 @@
     </row>
     <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4176,10 +4202,10 @@
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4188,7 +4214,7 @@
     <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4205,11 +4231,11 @@
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="31">
@@ -4221,7 +4247,7 @@
     <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4232,7 +4258,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4242,7 +4268,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4252,7 +4278,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="31">
@@ -4276,7 +4302,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24" s="10"/>
       <c r="G24" s="6"/>
@@ -4284,7 +4310,7 @@
     <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="32"/>
@@ -4350,7 +4376,7 @@
       <c r="B31" s="32"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="6"/>
@@ -4407,7 +4433,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4421,7 +4447,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4435,7 +4461,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>

--- a/Template_PRF.xlsx
+++ b/Template_PRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\Python\excelProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33B467-52ED-470B-B19E-B654C3F55969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A45417-2B6B-4FEE-A512-CCED5221B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRF" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
-  <si>
-    <t>G(13)-1687732</t>
-  </si>
-  <si>
-    <t>bicol peryodiko</t>
-  </si>
-  <si>
-    <t>CAVINITAN, VIRAC, CATANDUANES</t>
-  </si>
-  <si>
-    <t>LGU-BARAS, CATANDUANES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>WHEREAS THE ABOVE-NAMED PRINCIPAL WAS AWARDED AND GUARANTEES THE FAITHFUL PERFORMANCE FOR THE PROJECT:</t>
   </si>
@@ -78,9 +66,6 @@
     <t/>
   </si>
   <si>
-    <t>MR. FERDINAND M. BRIZO</t>
-  </si>
-  <si>
     <t>GEMMA T. SARMIENTO</t>
   </si>
   <si>
@@ -93,42 +78,9 @@
     <t>Legazpi City</t>
   </si>
   <si>
-    <t>FOUR HUNDRED TEN  PESOS ONLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONE THOUSAND TWO HUNDRED FORTY SIX  </t>
-  </si>
-  <si>
-    <t>AND 30/100 ONLY</t>
-  </si>
-  <si>
     <t>ONE (1) YEAR</t>
   </si>
   <si>
-    <t>FOUR  PESOS AND 14/100 ONLY</t>
-  </si>
-  <si>
-    <t>BICOL PERYODIKO</t>
-  </si>
-  <si>
-    <t>JULY 29, 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULY 29, 2025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONE HUNDRED FORTY NINE THOUSAND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 JULY 29, 2025 </t>
-  </si>
-  <si>
-    <t>JULY 29, 2025  - JULY 29, 2026</t>
-  </si>
-  <si>
-    <t>TWO THOUSAND THREE  HUNDRED FIFTY</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOND NO. </t>
   </si>
   <si>
@@ -153,6 +105,9 @@
     <t>(PhpCOVERAGE; Philippine Currencies)</t>
   </si>
   <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>DATE, YEAR + 1</t>
   </si>
   <si>
@@ -199,6 +154,27 @@
   </si>
   <si>
     <t>PROP ADD</t>
+  </si>
+  <si>
+    <t>AMOUNTS IN WORDS 2</t>
+  </si>
+  <si>
+    <t>RATING AMOUNT IN WORDS</t>
+  </si>
+  <si>
+    <t>RATING AMOUNT IN WORDS 2</t>
+  </si>
+  <si>
+    <t>RATING AMOUNT</t>
+  </si>
+  <si>
+    <t>PROP ADRESS</t>
+  </si>
+  <si>
+    <t>BOND NO</t>
+  </si>
+  <si>
+    <t>DATE YEAR - DATE YEAR + 1</t>
   </si>
 </sst>
 </file>
@@ -918,7 +894,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="36" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K10" s="37"/>
     </row>
@@ -992,13 +968,13 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="36" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="25" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -1059,20 +1035,20 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="H21" s="25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K22" s="10"/>
     </row>
@@ -1157,13 +1133,13 @@
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,43 +1149,43 @@
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1208,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1348,7 +1324,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1422,7 +1398,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K54" s="10"/>
     </row>
@@ -1444,11 +1420,11 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -1550,7 +1526,7 @@
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="36" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
@@ -1558,7 +1534,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="36" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
@@ -1619,7 +1595,7 @@
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -1700,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1719,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="36" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K3" s="37"/>
     </row>
@@ -1763,7 +1739,7 @@
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1796,7 +1772,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1848,15 +1824,15 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="41" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="14"/>
@@ -1876,18 +1852,18 @@
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="14"/>
@@ -1895,14 +1871,14 @@
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2016,7 +1992,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2186,7 +2162,7 @@
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2215,7 +2191,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2292,14 +2268,14 @@
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="44" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -2308,7 +2284,7 @@
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -2369,7 +2345,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="40" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -2436,7 +2412,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -2453,7 +2429,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="11"/>
       <c r="J55" s="38" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K55" s="37"/>
     </row>
@@ -2466,7 +2442,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="19"/>
@@ -2487,7 +2463,7 @@
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="11"/>
@@ -2693,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2686,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="36" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K1" s="37"/>
     </row>
@@ -2912,14 +2888,14 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="48" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="7"/>
       <c r="G17" s="45" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -2929,13 +2905,13 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="47" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="46">
-        <v>149410</v>
+      <c r="F18" s="46" t="s">
+        <v>37</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="4"/>
@@ -2946,7 +2922,7 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="47" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -3018,7 +2994,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="45" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -3028,13 +3004,13 @@
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="46">
-        <v>1246.3008</v>
+      <c r="F25" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="4"/>
@@ -3050,7 +3026,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3124,7 +3100,7 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3194,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,7 +3355,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -3505,7 +3481,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -3548,14 +3524,14 @@
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -3565,7 +3541,7 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -3761,7 +3737,7 @@
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -3795,7 +3771,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -3908,14 +3884,14 @@
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -4028,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,10 +4067,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4106,7 +4082,7 @@
     <row r="6" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4127,15 +4103,15 @@
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
@@ -4169,7 +4145,7 @@
     </row>
     <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="30"/>
@@ -4180,7 +4156,7 @@
     <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
@@ -4203,7 +4179,7 @@
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="51" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="10"/>
@@ -4214,7 +4190,7 @@
     <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4231,11 +4207,11 @@
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="31">
@@ -4247,7 +4223,7 @@
     <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4258,7 +4234,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4268,7 +4244,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4278,7 +4254,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="31">
@@ -4302,7 +4278,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10"/>
       <c r="G24" s="6"/>
@@ -4310,7 +4286,7 @@
     <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="32"/>
@@ -4376,7 +4352,7 @@
       <c r="B31" s="32"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="6"/>
@@ -4433,7 +4409,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4447,7 +4423,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4461,7 +4437,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>

--- a/Template_PRF.xlsx
+++ b/Template_PRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\Python\excelProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A45417-2B6B-4FEE-A512-CCED5221B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D640AE-C430-478F-8CE9-7899359AE6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRF" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -390,6 +390,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,9 +429,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -770,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1048,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="53" t="s">
         <v>27</v>
       </c>
       <c r="K22" s="10"/>
@@ -1528,9 +1529,9 @@
       <c r="B64" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="36" t="s">
@@ -1823,10 +1824,10 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
@@ -1854,10 +1855,10 @@
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="14" t="s">
         <v>12</v>
       </c>
@@ -2267,14 +2268,14 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="45" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="37"/>
@@ -2283,14 +2284,14 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="37"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2344,11 +2345,11 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2429,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="19"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="38" t="s">
+      <c r="J55" s="39" t="s">
         <v>32</v>
       </c>
       <c r="K55" s="37"/>
@@ -2462,7 +2463,7 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="37"/>
@@ -2887,14 +2888,14 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="46" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="37"/>
@@ -2904,13 +2905,13 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="37"/>
@@ -2921,7 +2922,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="37"/>
@@ -2993,7 +2994,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="37"/>
@@ -3009,7 +3010,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="47" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="37"/>
@@ -4004,7 +4005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4081,11 +4082,11 @@
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
@@ -4102,11 +4103,11 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
@@ -4169,8 +4170,8 @@
     </row>
     <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4178,10 +4179,10 @@
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
